--- a/Source/NPOIDemo/bin/Debug/BBB.xlsx
+++ b/Source/NPOIDemo/bin/Debug/BBB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="16425" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -132,26 +132,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,7 +156,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -476,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -775,7 +759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -799,7 +783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>9</v>
       </c>
@@ -823,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>10</v>
       </c>
@@ -846,20 +830,6 @@
       <c r="G19" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
